--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Description</t>
   </si>
@@ -89,7 +89,19 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Aukru-HC-SR501-Pyroelectric-Infrared-Detector/dp/B019SX6ZR6/ref=sr_1_7?ie=UTF8&amp;qid=1537891295&amp;sr=8-7&amp;keywords=motion+sensors</t>
+    <t>Small case design material</t>
+  </si>
+  <si>
+    <t>Parts kit already contains breadboard along with wires.</t>
+  </si>
+  <si>
+    <t>Total ($CAD)</t>
+  </si>
+  <si>
+    <t>LED Ring</t>
+  </si>
+  <si>
+    <t>Provided by school</t>
   </si>
 </sst>
 </file>
@@ -443,23 +455,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -560,67 +574,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>15.99</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>15.99</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>12.99</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="H7" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -633,7 +615,9 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -645,7 +629,6 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -657,7 +640,9 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -681,7 +666,9 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -690,7 +677,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -717,16 +706,22 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>SUM(H4:H15)</f>
+        <v>115.97999999999999</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1415,7 +1410,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId2"/>
   </hyperlinks>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>